--- a/FP6.xlsx
+++ b/FP6.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\albert\SENSOR_FUSION\Project_Submissions\Camera_Final_Project\SFND_3D_Object_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C8329-AD68-4CA2-BB72-C4C0BCC28484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B97E23-2180-4B16-8A2B-E13D70E22E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3615" windowWidth="29040" windowHeight="15720" xr2:uid="{7214647A-5B44-4F86-B620-7497692EADD3}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{7214647A-5B44-4F86-B620-7497692EADD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
   <si>
     <t>FAST+ORB</t>
   </si>
@@ -47,22 +44,139 @@
     <t>FAST + BRIEF</t>
   </si>
   <si>
-    <t>FAST + SIFT</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
     <t>FRAME NO</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>STD.DEVIATION</t>
   </si>
   <si>
     <t>MINIMUM TTC</t>
+  </si>
+  <si>
+    <t>FAST+FREAK</t>
+  </si>
+  <si>
+    <t>HARRIS+ORB</t>
+  </si>
+  <si>
+    <t>HARRIS + BRIEF</t>
+  </si>
+  <si>
+    <t>HARRIS+FREAK</t>
+  </si>
+  <si>
+    <t>BRISK+ORB</t>
+  </si>
+  <si>
+    <t>BRISK + BRIEF</t>
+  </si>
+  <si>
+    <t>BRISK+FREAK</t>
+  </si>
+  <si>
+    <t>ORB+ORB</t>
+  </si>
+  <si>
+    <t>ORB + BRIEF</t>
+  </si>
+  <si>
+    <t>ORB+FREAK</t>
+  </si>
+  <si>
+    <t>SIFT+ORB</t>
+  </si>
+  <si>
+    <t>SIFT + BRIEF</t>
+  </si>
+  <si>
+    <t>SIFT+FREAK</t>
+  </si>
+  <si>
+    <t>AKAZE+ORB</t>
+  </si>
+  <si>
+    <t>AKAZE + BRIEF</t>
+  </si>
+  <si>
+    <t>AKAZE+FREAK</t>
+  </si>
+  <si>
+    <t>AKAZE+AKAZE</t>
+  </si>
+  <si>
+    <t>FAST + BRISK</t>
+  </si>
+  <si>
+    <t>FAST+SIFT</t>
+  </si>
+  <si>
+    <t>HARRIS+SIFT</t>
+  </si>
+  <si>
+    <t>HARRIS + BRISK</t>
+  </si>
+  <si>
+    <t>BRISK + BRISK</t>
+  </si>
+  <si>
+    <t>BRISK+SIFT</t>
+  </si>
+  <si>
+    <t>ORB + BRISK</t>
+  </si>
+  <si>
+    <t>ORB+SIFT</t>
+  </si>
+  <si>
+    <t>SIFT + BRISK</t>
+  </si>
+  <si>
+    <t>SIFT+SIFT</t>
+  </si>
+  <si>
+    <t>AKAZE + BRISK</t>
+  </si>
+  <si>
+    <t>AKAZE+SIFT</t>
+  </si>
+  <si>
+    <t>SHI TOMASI + ORB</t>
+  </si>
+  <si>
+    <t>SHI TOMASI + BRIEF</t>
+  </si>
+  <si>
+    <t>SHI TOMASI + BRISK</t>
+  </si>
+  <si>
+    <t>SHI TOMASI+SIFT</t>
+  </si>
+  <si>
+    <t>SHI TOMASI+FREAK</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1NA,97</t>
+  </si>
+  <si>
+    <t>1NA,93</t>
+  </si>
+  <si>
+    <t>2NA,586</t>
+  </si>
+  <si>
+    <t>7,NA37</t>
+  </si>
+  <si>
+    <t>1NA,29</t>
+  </si>
+  <si>
+    <t>AVERAGE TTC</t>
   </si>
 </sst>
 </file>
@@ -212,12 +326,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,15 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +358,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,118 +375,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Lidar TTC</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>12.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>12.61</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>14.09</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>16.68</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>15.74</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>12.78</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>11.984</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>13.12</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>13.02</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>11.17</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>12.8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>8.9499999999999993</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>9.9640000000000004</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>9.59</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>8.52</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>9.5154999999999994</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>9.6120000000000001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>8.39</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,112 +694,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4E0F0-F723-44AC-AA0A-97275A2BB41B}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" customWidth="1"/>
     <col min="4" max="4" width="9.6328125" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
     <col min="20" max="20" width="16.54296875" customWidth="1"/>
     <col min="21" max="21" width="17.08984375" customWidth="1"/>
     <col min="22" max="22" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:26" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>8</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="3">
         <v>11</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="3">
         <v>12</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="3">
         <v>13</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="3">
         <v>14</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="3">
         <v>15</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="3">
         <v>16</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="3">
         <v>17</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="3">
         <v>18</v>
       </c>
       <c r="T2" s="9"/>
@@ -811,70 +816,70 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11.173</v>
+        <v>12.7</v>
       </c>
       <c r="C3">
-        <v>12.34</v>
+        <v>13.2</v>
       </c>
       <c r="D3">
-        <v>14.31</v>
+        <v>19.03</v>
       </c>
       <c r="E3">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="F3">
-        <v>16.239999999999998</v>
+        <v>138.49</v>
       </c>
       <c r="G3">
+        <v>66.022000000000006</v>
+      </c>
+      <c r="H3">
+        <v>12.74</v>
+      </c>
+      <c r="I3">
+        <v>12.68</v>
+      </c>
+      <c r="J3">
+        <v>13.92</v>
+      </c>
+      <c r="K3">
+        <v>14.04</v>
+      </c>
+      <c r="L3">
+        <v>14.87</v>
+      </c>
+      <c r="M3">
+        <v>11.39</v>
+      </c>
+      <c r="N3">
         <v>12.94</v>
       </c>
-      <c r="H3">
-        <v>11.430999999999999</v>
-      </c>
-      <c r="I3">
-        <v>11.18</v>
-      </c>
-      <c r="J3">
-        <v>12.852</v>
-      </c>
-      <c r="K3">
-        <v>13.016999999999999</v>
-      </c>
-      <c r="L3">
+      <c r="O3">
+        <v>12.5</v>
+      </c>
+      <c r="P3">
+        <v>11.47</v>
+      </c>
+      <c r="Q3">
+        <v>12.95</v>
+      </c>
+      <c r="R3">
+        <v>12.013999999999999</v>
+      </c>
+      <c r="S3">
         <v>13.79</v>
-      </c>
-      <c r="M3">
-        <v>12.32</v>
-      </c>
-      <c r="N3">
-        <v>12.27</v>
-      </c>
-      <c r="O3">
-        <v>11.92</v>
-      </c>
-      <c r="P3">
-        <v>11.14</v>
-      </c>
-      <c r="Q3">
-        <v>12.137</v>
-      </c>
-      <c r="R3">
-        <v>10.6</v>
-      </c>
-      <c r="S3">
-        <v>12.04</v>
       </c>
       <c r="T3">
         <f>AVERAGE(B3:S3)</f>
-        <v>12.461111111111109</v>
+        <v>23.258111111111116</v>
       </c>
       <c r="U3">
         <f>_xlfn.STDEV.S(B3:S3)</f>
-        <v>1.3370672423096785</v>
+        <v>31.35624020432989</v>
       </c>
       <c r="V3">
         <f>MIN(B3:S3)</f>
-        <v>10.6</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.4">
@@ -882,142 +887,2476 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10.66</v>
+        <v>12.59</v>
       </c>
       <c r="C4">
-        <v>12.3</v>
+        <v>13.14</v>
       </c>
       <c r="D4">
-        <v>13.76</v>
+        <v>23.49</v>
       </c>
       <c r="E4">
-        <v>12.9</v>
-      </c>
-      <c r="F4">
-        <v>19.899999999999999</v>
+        <v>15.337999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>12.88</v>
+        <v>66.022000000000006</v>
       </c>
       <c r="H4">
-        <v>11.04</v>
+        <v>12.93</v>
       </c>
       <c r="I4">
-        <v>11.72</v>
+        <v>12.65</v>
       </c>
       <c r="J4">
-        <v>12.08</v>
+        <v>13.92</v>
       </c>
       <c r="K4">
-        <v>13.68</v>
+        <v>17.14</v>
       </c>
       <c r="L4">
-        <v>13.01</v>
+        <v>13.99</v>
       </c>
       <c r="M4">
-        <v>11.744999999999999</v>
+        <v>13.16</v>
       </c>
       <c r="N4">
-        <v>12.5</v>
+        <v>13.411</v>
       </c>
       <c r="O4">
-        <v>11.07</v>
+        <v>13.19</v>
       </c>
       <c r="P4">
-        <v>11.88</v>
+        <v>12.6</v>
       </c>
       <c r="Q4">
-        <v>12.029</v>
+        <v>12.65</v>
       </c>
       <c r="R4">
-        <v>8.7899999999999991</v>
+        <v>11.55</v>
       </c>
       <c r="S4">
-        <v>11.86</v>
+        <v>13.79</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T5" si="0">AVERAGE(B4:S4)</f>
-        <v>12.433555555555554</v>
+        <f t="shared" ref="T4:T21" si="0">AVERAGE(B4:S4)</f>
+        <v>17.150647058823527</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U5" si="1">_xlfn.STDEV.S(B4:S4)</f>
-        <v>2.1957431871215798</v>
+        <f t="shared" ref="U4:U21" si="1">_xlfn.STDEV.S(B4:S4)</f>
+        <v>12.885277310467444</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V5" si="2">MIN(B4:S4)</f>
-        <v>8.7899999999999991</v>
+        <f t="shared" ref="V4:V21" si="2">MIN(B4:S4)</f>
+        <v>11.55</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>11.436</v>
+        <v>11.93</v>
       </c>
       <c r="C5">
-        <v>12.481999999999999</v>
+        <v>12.08</v>
       </c>
       <c r="D5">
+        <v>14.58</v>
+      </c>
+      <c r="E5">
+        <v>13.78</v>
+      </c>
+      <c r="F5">
+        <v>49.198999999999998</v>
+      </c>
+      <c r="G5">
+        <v>13.144</v>
+      </c>
+      <c r="H5">
+        <v>12.18</v>
+      </c>
+      <c r="I5">
+        <v>11.81</v>
+      </c>
+      <c r="J5">
         <v>13.2</v>
       </c>
-      <c r="E5">
-        <v>13.96</v>
-      </c>
-      <c r="F5">
-        <v>20.66</v>
-      </c>
-      <c r="G5">
-        <v>12.53</v>
-      </c>
-      <c r="H5">
-        <v>12.05</v>
-      </c>
-      <c r="I5">
-        <v>12.04</v>
-      </c>
-      <c r="J5">
-        <v>12.32</v>
-      </c>
       <c r="K5">
-        <v>13.32</v>
+        <v>13.2</v>
       </c>
       <c r="L5">
-        <v>13.4</v>
+        <v>13.75</v>
       </c>
       <c r="M5">
-        <v>12.13</v>
+        <v>11.4</v>
       </c>
       <c r="N5">
-        <v>12.01</v>
+        <v>12.5</v>
       </c>
       <c r="O5">
-        <v>11.14</v>
+        <v>11.69</v>
       </c>
       <c r="P5">
-        <v>11.21</v>
+        <v>10.98</v>
       </c>
       <c r="Q5">
-        <v>12.13</v>
+        <v>12.09</v>
       </c>
       <c r="R5">
-        <v>10.19</v>
+        <v>9.69</v>
       </c>
       <c r="S5">
-        <v>11.79</v>
+        <v>11.83</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>12.666555555555554</v>
+        <v>14.39072222222222</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>2.1913987803179715</v>
+        <v>8.7620877434652016</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>10.19</v>
-      </c>
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>12.44</v>
+      </c>
+      <c r="C6">
+        <v>24.138999999999999</v>
+      </c>
+      <c r="D6">
+        <v>19.03</v>
+      </c>
+      <c r="E6">
+        <v>15.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>14.06</v>
+      </c>
+      <c r="H6">
+        <v>12.62</v>
+      </c>
+      <c r="I6">
+        <v>12.8</v>
+      </c>
+      <c r="J6">
+        <v>13.92</v>
+      </c>
+      <c r="K6">
+        <v>17.57</v>
+      </c>
+      <c r="L6">
+        <v>15.1</v>
+      </c>
+      <c r="M6">
+        <v>12.84</v>
+      </c>
+      <c r="N6">
+        <v>12.86</v>
+      </c>
+      <c r="O6">
+        <v>12.98</v>
+      </c>
+      <c r="P6">
+        <v>12.6</v>
+      </c>
+      <c r="Q6">
+        <v>13.05</v>
+      </c>
+      <c r="R6">
+        <v>11.67</v>
+      </c>
+      <c r="S6">
+        <v>13.79</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>14.551117647058822</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>3.1455404917587955</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12.59</v>
+      </c>
+      <c r="C7">
+        <v>24.12</v>
+      </c>
+      <c r="D7">
+        <v>13.35</v>
+      </c>
+      <c r="E7">
+        <v>13.54</v>
+      </c>
+      <c r="F7">
+        <v>13.57</v>
+      </c>
+      <c r="G7">
+        <v>12.55</v>
+      </c>
+      <c r="H7">
+        <v>13.05</v>
+      </c>
+      <c r="I7">
+        <v>12.21</v>
+      </c>
+      <c r="J7">
+        <v>12.02</v>
+      </c>
+      <c r="K7">
+        <v>14.51</v>
+      </c>
+      <c r="L7">
+        <v>12.4</v>
+      </c>
+      <c r="M7">
+        <v>11.86</v>
+      </c>
+      <c r="N7">
+        <v>12.57</v>
+      </c>
+      <c r="O7">
+        <v>11.47</v>
+      </c>
+      <c r="P7">
+        <v>11.16</v>
+      </c>
+      <c r="Q7">
+        <v>11.65</v>
+      </c>
+      <c r="R7">
+        <v>8.59</v>
+      </c>
+      <c r="S7">
+        <v>12.186</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>12.966444444444443</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>3.0497350747472818</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>14.07</v>
+      </c>
+      <c r="C10">
+        <v>12.9</v>
+      </c>
+      <c r="D10">
+        <v>18.3</v>
+      </c>
+      <c r="E10">
+        <v>12.38</v>
+      </c>
+      <c r="F10">
+        <v>13.5</v>
+      </c>
+      <c r="G10">
+        <v>15.15</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>14.5</v>
+      </c>
+      <c r="J10">
+        <v>11.97</v>
+      </c>
+      <c r="K10">
+        <v>14.24</v>
+      </c>
+      <c r="L10">
+        <v>11.45</v>
+      </c>
+      <c r="M10">
+        <v>12.76</v>
+      </c>
+      <c r="N10">
+        <v>12.82</v>
+      </c>
+      <c r="O10">
+        <v>12.47</v>
+      </c>
+      <c r="P10">
+        <v>12.35</v>
+      </c>
+      <c r="Q10">
+        <v>12.32</v>
+      </c>
+      <c r="R10">
+        <v>13.52</v>
+      </c>
+      <c r="S10">
+        <v>10.72</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>13.356666666666666</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>1.7182001526905766</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>14.074</v>
+      </c>
+      <c r="C11">
+        <v>14.589</v>
+      </c>
+      <c r="D11">
+        <v>14.14</v>
+      </c>
+      <c r="E11">
+        <v>13.01</v>
+      </c>
+      <c r="F11">
+        <v>13.311</v>
+      </c>
+      <c r="G11">
+        <v>15.153</v>
+      </c>
+      <c r="H11">
+        <v>13.8</v>
+      </c>
+      <c r="I11">
+        <v>15.32</v>
+      </c>
+      <c r="J11">
+        <v>11.95</v>
+      </c>
+      <c r="K11">
+        <v>14.944000000000001</v>
+      </c>
+      <c r="L11">
+        <v>11.8</v>
+      </c>
+      <c r="M11">
+        <v>12.22</v>
+      </c>
+      <c r="N11">
+        <v>13.1</v>
+      </c>
+      <c r="O11">
+        <v>12.17</v>
+      </c>
+      <c r="P11">
+        <v>22.11</v>
+      </c>
+      <c r="Q11">
+        <v>11.97</v>
+      </c>
+      <c r="R11">
+        <v>11.18</v>
+      </c>
+      <c r="S11">
+        <v>12.08</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>13.717833333333333</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>2.4530681688808609</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>13.53</v>
+      </c>
+      <c r="C12">
+        <v>13.89</v>
+      </c>
+      <c r="D12">
+        <v>12.067</v>
+      </c>
+      <c r="E12">
+        <v>12.85</v>
+      </c>
+      <c r="F12">
+        <v>12.334</v>
+      </c>
+      <c r="G12">
+        <v>13.75</v>
+      </c>
+      <c r="H12">
+        <v>12.18</v>
+      </c>
+      <c r="I12">
+        <v>13.51</v>
+      </c>
+      <c r="J12">
+        <v>11.006</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>11.23</v>
+      </c>
+      <c r="M12">
+        <v>11.65</v>
+      </c>
+      <c r="N12">
+        <v>11.666</v>
+      </c>
+      <c r="O12">
+        <v>12.0411</v>
+      </c>
+      <c r="P12">
+        <v>11.7</v>
+      </c>
+      <c r="Q12">
+        <v>12.18</v>
+      </c>
+      <c r="R12">
+        <v>11.12</v>
+      </c>
+      <c r="S12">
+        <v>9.76</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>12.144947058823529</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>1.1039831906089237</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>14.074</v>
+      </c>
+      <c r="C13">
+        <v>14.66</v>
+      </c>
+      <c r="D13">
+        <v>14.38</v>
+      </c>
+      <c r="E13">
+        <v>13.012</v>
+      </c>
+      <c r="F13">
+        <v>13.55</v>
+      </c>
+      <c r="G13">
+        <v>15.15</v>
+      </c>
+      <c r="H13">
+        <v>15.8</v>
+      </c>
+      <c r="I13">
+        <v>15.32</v>
+      </c>
+      <c r="J13">
+        <v>12.23</v>
+      </c>
+      <c r="K13">
+        <v>17.04</v>
+      </c>
+      <c r="L13">
+        <v>12.29</v>
+      </c>
+      <c r="M13">
+        <v>12.76</v>
+      </c>
+      <c r="N13">
+        <v>12.84</v>
+      </c>
+      <c r="O13">
+        <v>12.71</v>
+      </c>
+      <c r="P13">
+        <v>12.35</v>
+      </c>
+      <c r="Q13">
+        <v>13.31</v>
+      </c>
+      <c r="R13">
+        <v>13.52</v>
+      </c>
+      <c r="S13">
+        <v>12.087999999999999</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>13.726888888888887</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>1.4070630609593657</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>12.087999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>13.18</v>
+      </c>
+      <c r="C14">
+        <v>14.16</v>
+      </c>
+      <c r="D14">
+        <v>11.39</v>
+      </c>
+      <c r="E14">
+        <v>11.85</v>
+      </c>
+      <c r="F14">
+        <v>11.84</v>
+      </c>
+      <c r="G14">
+        <v>14.89</v>
+      </c>
+      <c r="H14">
+        <v>12.43</v>
+      </c>
+      <c r="I14">
+        <v>12.05</v>
+      </c>
+      <c r="J14">
+        <v>12.311</v>
+      </c>
+      <c r="K14">
+        <v>13.02</v>
+      </c>
+      <c r="L14">
+        <v>11.41</v>
+      </c>
+      <c r="M14">
+        <v>11.33</v>
+      </c>
+      <c r="N14">
+        <v>12.4</v>
+      </c>
+      <c r="O14">
+        <v>12.39</v>
+      </c>
+      <c r="P14">
+        <v>10.28</v>
+      </c>
+      <c r="Q14">
+        <v>11.1</v>
+      </c>
+      <c r="R14">
+        <v>11.63</v>
+      </c>
+      <c r="S14">
+        <v>8.2010000000000005</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>11.992333333333333</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>1.4471181097372126</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>8.2010000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>13.19</v>
+      </c>
+      <c r="I17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>11.43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17">
+        <v>5.66</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>16.651999999999997</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>11.310564530561688</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>-11.47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>14.27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18">
+        <v>11.741</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <v>5.66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18">
+        <v>12.58</v>
+      </c>
+      <c r="S18">
+        <v>25.67</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>13.404428571428571</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>14.811477777466399</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>-11.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>12.2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>23.79</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>16.390735187904184</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G20">
+        <v>13.59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>11.74</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>5.6</v>
+      </c>
+      <c r="P20">
+        <v>-13.62</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>10.538</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>17.577523147474448</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>-13.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>35.383200000000002</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>12.27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21">
+        <v>11.79</v>
+      </c>
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>19.814399999999999</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>13.485112164160897</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>22.75</v>
+      </c>
+      <c r="C24">
+        <v>19.3</v>
+      </c>
+      <c r="D24">
+        <v>14.3</v>
+      </c>
+      <c r="E24">
+        <v>16.3</v>
+      </c>
+      <c r="F24">
+        <v>20.14</v>
+      </c>
+      <c r="G24">
+        <v>20.34</v>
+      </c>
+      <c r="H24">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="I24">
+        <v>16.8</v>
+      </c>
+      <c r="J24">
+        <v>13.33</v>
+      </c>
+      <c r="K24">
+        <v>12.75</v>
+      </c>
+      <c r="L24">
+        <v>13.22</v>
+      </c>
+      <c r="M24">
+        <v>11.5</v>
+      </c>
+      <c r="N24">
+        <v>12.89</v>
+      </c>
+      <c r="O24">
+        <v>15.39</v>
+      </c>
+      <c r="P24">
+        <v>13.27</v>
+      </c>
+      <c r="Q24">
+        <v>14.55</v>
+      </c>
+      <c r="R24">
+        <v>9.99</v>
+      </c>
+      <c r="S24">
+        <v>14.26</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(B24:S24)</f>
+        <v>15.540555555555557</v>
+      </c>
+      <c r="U24">
+        <f>_xlfn.STDEV.S(B24:S24)</f>
+        <v>3.4614489863303324</v>
+      </c>
+      <c r="V24">
+        <f>MIN(B24:S24)</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>16.38</v>
+      </c>
+      <c r="C25">
+        <v>20.94</v>
+      </c>
+      <c r="D25">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E25">
+        <v>26.18</v>
+      </c>
+      <c r="F25">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="G25">
+        <v>51.86</v>
+      </c>
+      <c r="H25">
+        <v>25.14</v>
+      </c>
+      <c r="I25">
+        <v>30.94</v>
+      </c>
+      <c r="J25">
+        <v>24.43</v>
+      </c>
+      <c r="K25">
+        <v>16.37</v>
+      </c>
+      <c r="L25">
+        <v>20.76</v>
+      </c>
+      <c r="M25">
+        <v>19.14</v>
+      </c>
+      <c r="N25">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="O25">
+        <v>18.55</v>
+      </c>
+      <c r="P25">
+        <v>15.97</v>
+      </c>
+      <c r="Q25">
+        <v>15.02</v>
+      </c>
+      <c r="R25">
+        <v>15.7</v>
+      </c>
+      <c r="S25">
+        <v>14.96</v>
+      </c>
+      <c r="T25">
+        <f>AVERAGE(B25:S25)</f>
+        <v>22.529444444444444</v>
+      </c>
+      <c r="U25">
+        <f>_xlfn.STDEV.S(B25:S25)</f>
+        <v>9.3005467721762454</v>
+      </c>
+      <c r="V25">
+        <f>MIN(B25:S25)</f>
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>15.36</v>
+      </c>
+      <c r="C26">
+        <v>18.07</v>
+      </c>
+      <c r="D26">
+        <v>13.54</v>
+      </c>
+      <c r="E26">
+        <v>16.53</v>
+      </c>
+      <c r="F26">
+        <v>24.82</v>
+      </c>
+      <c r="G26">
+        <v>28.84</v>
+      </c>
+      <c r="H26">
+        <v>22.64</v>
+      </c>
+      <c r="I26">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J26">
+        <v>16.75</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>16.010999999999999</v>
+      </c>
+      <c r="M26">
+        <v>18.010999999999999</v>
+      </c>
+      <c r="N26">
+        <v>14.15</v>
+      </c>
+      <c r="O26">
+        <v>13.91</v>
+      </c>
+      <c r="P26">
+        <v>16.03</v>
+      </c>
+      <c r="Q26">
+        <v>10.9</v>
+      </c>
+      <c r="R26">
+        <v>10.72</v>
+      </c>
+      <c r="S26">
+        <v>13.42</v>
+      </c>
+      <c r="T26">
+        <f>AVERAGE(B26:S26)</f>
+        <v>16.75566666666667</v>
+      </c>
+      <c r="U26">
+        <f>_xlfn.STDEV.S(B26:S26)</f>
+        <v>4.6161421631691715</v>
+      </c>
+      <c r="V26">
+        <f>MIN(B26:S26)</f>
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>12.84</v>
+      </c>
+      <c r="C27">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="D27">
+        <v>14.94</v>
+      </c>
+      <c r="E27">
+        <v>13.94</v>
+      </c>
+      <c r="F27">
+        <v>27.41</v>
+      </c>
+      <c r="G27">
+        <v>15.69</v>
+      </c>
+      <c r="H27">
+        <v>15.41</v>
+      </c>
+      <c r="I27">
+        <v>16.5</v>
+      </c>
+      <c r="J27">
+        <v>16.34</v>
+      </c>
+      <c r="K27">
+        <v>15</v>
+      </c>
+      <c r="L27">
+        <v>12.74</v>
+      </c>
+      <c r="M27">
+        <v>11.51</v>
+      </c>
+      <c r="N27">
+        <v>13.54</v>
+      </c>
+      <c r="O27">
+        <v>11.61</v>
+      </c>
+      <c r="P27">
+        <v>14.23</v>
+      </c>
+      <c r="Q27">
+        <v>11.62</v>
+      </c>
+      <c r="R27">
+        <v>10.1</v>
+      </c>
+      <c r="S27">
+        <v>13.94</v>
+      </c>
+      <c r="T27">
+        <f>AVERAGE(B27:S27)</f>
+        <v>14.68611111111111</v>
+      </c>
+      <c r="U27">
+        <f>_xlfn.STDEV.S(B27:S27)</f>
+        <v>3.7159404460637986</v>
+      </c>
+      <c r="V27">
+        <f>MIN(B27:S27)</f>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>12.36</v>
+      </c>
+      <c r="C28">
+        <v>20.11</v>
+      </c>
+      <c r="D28">
+        <v>15.81</v>
+      </c>
+      <c r="E28">
+        <v>13.91</v>
+      </c>
+      <c r="F28">
+        <v>24.58</v>
+      </c>
+      <c r="G28">
+        <v>12.93</v>
+      </c>
+      <c r="H28">
+        <v>15.67</v>
+      </c>
+      <c r="I28">
+        <v>18.23</v>
+      </c>
+      <c r="J28">
+        <v>17.82</v>
+      </c>
+      <c r="K28">
+        <v>12.72</v>
+      </c>
+      <c r="L28">
+        <v>15.11</v>
+      </c>
+      <c r="M28">
+        <v>12.14</v>
+      </c>
+      <c r="N28">
+        <v>12.71</v>
+      </c>
+      <c r="O28">
+        <v>11.62</v>
+      </c>
+      <c r="P28">
+        <v>14.28</v>
+      </c>
+      <c r="Q28">
+        <v>9.18</v>
+      </c>
+      <c r="R28">
+        <v>9.18</v>
+      </c>
+      <c r="S28">
+        <v>12.3</v>
+      </c>
+      <c r="T28">
+        <f>AVERAGE(B28:S28)</f>
+        <v>14.481111111111112</v>
+      </c>
+      <c r="U28">
+        <f>_xlfn.STDEV.S(B28:S28)</f>
+        <v>3.8393226867261911</v>
+      </c>
+      <c r="V28">
+        <f>MIN(B28:S28)</f>
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>12.41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>50.6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>19.16</v>
+      </c>
+      <c r="I31">
+        <v>13.91</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>24.76</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31">
+        <v>740.09</v>
+      </c>
+      <c r="Q31">
+        <v>17.3</v>
+      </c>
+      <c r="R31">
+        <v>15.64</v>
+      </c>
+      <c r="S31">
+        <v>29.78</v>
+      </c>
+      <c r="T31">
+        <f>AVERAGE(B31:S31)</f>
+        <v>87.240909090909085</v>
+      </c>
+      <c r="U31">
+        <f>_xlfn.STDEV.S(B31:S31)</f>
+        <v>216.81264656170524</v>
+      </c>
+      <c r="V31">
+        <f>MIN(B31:S31)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>1929.11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>37.82</v>
+      </c>
+      <c r="F32">
+        <v>143.54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>245.42</v>
+      </c>
+      <c r="J32">
+        <v>2826131.25</v>
+      </c>
+      <c r="K32">
+        <v>15.433999999999999</v>
+      </c>
+      <c r="L32">
+        <v>19.71</v>
+      </c>
+      <c r="M32">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="N32">
+        <v>35.44</v>
+      </c>
+      <c r="O32">
+        <v>33.97</v>
+      </c>
+      <c r="P32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32">
+        <v>47.24</v>
+      </c>
+      <c r="R32">
+        <v>224.16</v>
+      </c>
+      <c r="S32">
+        <v>22.7</v>
+      </c>
+      <c r="T32">
+        <f>AVERAGE(B32:S32)</f>
+        <v>217608.17184615388</v>
+      </c>
+      <c r="U32">
+        <f>_xlfn.STDEV.S(B32:S32)</f>
+        <v>783763.81372734241</v>
+      </c>
+      <c r="V32">
+        <f>MIN(B32:S32)</f>
+        <v>15.433999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>18.34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>18.53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33">
+        <v>3320.29</v>
+      </c>
+      <c r="H33">
+        <v>114.88</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="12">
+        <v>43.03</v>
+      </c>
+      <c r="K33">
+        <v>20.99</v>
+      </c>
+      <c r="L33">
+        <v>7.78</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>9.01</v>
+      </c>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33">
+        <v>10.39</v>
+      </c>
+      <c r="R33">
+        <v>15.66</v>
+      </c>
+      <c r="S33">
+        <v>52.686</v>
+      </c>
+      <c r="T33">
+        <f>AVERAGE(B33:S33)</f>
+        <v>330.14418181818183</v>
+      </c>
+      <c r="U33">
+        <f>_xlfn.STDEV.S(B33:S33)</f>
+        <v>992.21059751061091</v>
+      </c>
+      <c r="V33">
+        <f>MIN(B33:S33)</f>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>16.72</v>
+      </c>
+      <c r="C34">
+        <v>14.64</v>
+      </c>
+      <c r="D34">
+        <v>12.91</v>
+      </c>
+      <c r="E34">
+        <v>54.5</v>
+      </c>
+      <c r="F34">
+        <v>43.14</v>
+      </c>
+      <c r="G34">
+        <v>11.17</v>
+      </c>
+      <c r="H34">
+        <v>42.39</v>
+      </c>
+      <c r="I34">
+        <v>12.96</v>
+      </c>
+      <c r="J34">
+        <v>19.78</v>
+      </c>
+      <c r="K34">
+        <v>11.62</v>
+      </c>
+      <c r="L34">
+        <v>8.42</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>8.25</v>
+      </c>
+      <c r="O34">
+        <v>623.13</v>
+      </c>
+      <c r="P34">
+        <v>59.36</v>
+      </c>
+      <c r="Q34">
+        <v>13.2</v>
+      </c>
+      <c r="R34">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="S34">
+        <v>19.227</v>
+      </c>
+      <c r="T34">
+        <f>AVERAGE(B34:S34)</f>
+        <v>58.245705882352944</v>
+      </c>
+      <c r="U34">
+        <f>_xlfn.STDEV.S(B34:S34)</f>
+        <v>146.47603116967835</v>
+      </c>
+      <c r="V34">
+        <f>MIN(B34:S34)</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>11.26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>11.1</v>
+      </c>
+      <c r="E35">
+        <v>29.48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>18.23</v>
+      </c>
+      <c r="H35">
+        <v>127.59</v>
+      </c>
+      <c r="I35">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J35">
+        <v>30.14</v>
+      </c>
+      <c r="K35">
+        <v>-55.32</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <v>35.6</v>
+      </c>
+      <c r="N35">
+        <v>9.91</v>
+      </c>
+      <c r="O35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="Q35">
+        <v>10.48</v>
+      </c>
+      <c r="R35">
+        <v>25.81</v>
+      </c>
+      <c r="S35">
+        <v>24.18</v>
+      </c>
+      <c r="T35">
+        <f>AVERAGE(B35:S35)</f>
+        <v>20.358000000000001</v>
+      </c>
+      <c r="U35">
+        <f>_xlfn.STDEV.S(B35:S35)</f>
+        <v>36.302873597396825</v>
+      </c>
+      <c r="V35">
+        <f>MIN(B35:S35)</f>
+        <v>-55.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>11.84</v>
+      </c>
+      <c r="C39">
+        <v>12.81</v>
+      </c>
+      <c r="D39">
+        <v>14.01</v>
+      </c>
+      <c r="E39">
+        <v>18.62</v>
+      </c>
+      <c r="F39">
+        <v>13.26</v>
+      </c>
+      <c r="G39">
+        <v>12.33</v>
+      </c>
+      <c r="H39">
+        <v>14.91</v>
+      </c>
+      <c r="I39">
+        <v>17.68</v>
+      </c>
+      <c r="J39">
+        <v>12.36</v>
+      </c>
+      <c r="K39">
+        <v>10.59</v>
+      </c>
+      <c r="L39">
+        <v>13.47</v>
+      </c>
+      <c r="M39">
+        <v>11.16</v>
+      </c>
+      <c r="N39">
+        <v>10.42</v>
+      </c>
+      <c r="O39">
+        <v>11.73</v>
+      </c>
+      <c r="P39">
+        <v>10.29</v>
+      </c>
+      <c r="Q39">
+        <v>10.46</v>
+      </c>
+      <c r="R39">
+        <v>8.84</v>
+      </c>
+      <c r="S39">
+        <v>10.73</v>
+      </c>
+      <c r="T39">
+        <f>AVERAGE(B39:S39)</f>
+        <v>12.528333333333331</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U36:U50" si="3">_xlfn.STDEV.S(B39:S39)</f>
+        <v>2.5483148988163626</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V36:V50" si="4">MIN(B39:S39)</f>
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>19.22</v>
+      </c>
+      <c r="C40">
+        <v>12.98</v>
+      </c>
+      <c r="D40">
+        <v>13.47</v>
+      </c>
+      <c r="E40">
+        <v>17.77</v>
+      </c>
+      <c r="F40">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="G40">
+        <v>11.15</v>
+      </c>
+      <c r="H40">
+        <v>13.01</v>
+      </c>
+      <c r="I40">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="J40">
+        <v>12.98</v>
+      </c>
+      <c r="K40">
+        <v>10.95</v>
+      </c>
+      <c r="L40">
+        <v>11.02</v>
+      </c>
+      <c r="M40">
+        <v>10.57</v>
+      </c>
+      <c r="N40">
+        <v>9.42</v>
+      </c>
+      <c r="O40">
+        <v>9.33</v>
+      </c>
+      <c r="P40">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="Q40">
+        <v>12.34</v>
+      </c>
+      <c r="R40">
+        <v>12.22</v>
+      </c>
+      <c r="S40">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="T40">
+        <f>AVERAGE(B40:S40)</f>
+        <v>12.678888888888888</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>3.0452216936372083</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="4"/>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>11.37</v>
+      </c>
+      <c r="C41">
+        <v>12.87</v>
+      </c>
+      <c r="D41">
+        <v>13.09</v>
+      </c>
+      <c r="E41">
+        <v>18.28</v>
+      </c>
+      <c r="F41">
+        <v>12.75</v>
+      </c>
+      <c r="G41">
+        <v>11.95</v>
+      </c>
+      <c r="H41">
+        <v>13.43</v>
+      </c>
+      <c r="I41">
+        <v>14.08</v>
+      </c>
+      <c r="J41">
+        <v>12.75</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>10.97</v>
+      </c>
+      <c r="M41">
+        <v>10.4</v>
+      </c>
+      <c r="N41">
+        <v>9.43</v>
+      </c>
+      <c r="O41">
+        <v>10.64</v>
+      </c>
+      <c r="P41">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="Q41">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="R41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S41">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="T41">
+        <f>AVERAGE(B41:S41)</f>
+        <v>11.62611111111111</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>2.3616747270400946</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>14.66</v>
+      </c>
+      <c r="C42">
+        <v>18.79</v>
+      </c>
+      <c r="D42">
+        <v>13.15</v>
+      </c>
+      <c r="E42">
+        <v>17.52</v>
+      </c>
+      <c r="F42">
+        <v>13.7</v>
+      </c>
+      <c r="G42">
+        <v>10.98</v>
+      </c>
+      <c r="H42">
+        <v>14.17</v>
+      </c>
+      <c r="I42">
+        <v>14.84</v>
+      </c>
+      <c r="J42">
+        <v>13.44</v>
+      </c>
+      <c r="K42">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="L42">
+        <v>11.010999999999999</v>
+      </c>
+      <c r="M42">
+        <v>10.34</v>
+      </c>
+      <c r="N42">
+        <v>9.5</v>
+      </c>
+      <c r="O42">
+        <v>11.42</v>
+      </c>
+      <c r="P42">
+        <v>10.15</v>
+      </c>
+      <c r="Q42">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R42">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S42">
+        <v>8.68</v>
+      </c>
+      <c r="T42">
+        <f>AVERAGE(B42:S42)</f>
+        <v>12.572833333333334</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="3"/>
+        <v>3.1171559105357898</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="4"/>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>14.03</v>
+      </c>
+      <c r="C45">
+        <v>14.58</v>
+      </c>
+      <c r="D45">
+        <v>14.54</v>
+      </c>
+      <c r="E45">
+        <v>21.47</v>
+      </c>
+      <c r="F45">
+        <v>15.51</v>
+      </c>
+      <c r="G45">
+        <v>16.96</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>15.42</v>
+      </c>
+      <c r="J45">
+        <v>21.1</v>
+      </c>
+      <c r="K45">
+        <v>11.89</v>
+      </c>
+      <c r="L45">
+        <v>16.37</v>
+      </c>
+      <c r="M45">
+        <v>12.44</v>
+      </c>
+      <c r="N45">
+        <v>14.89</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>14.92</v>
+      </c>
+      <c r="Q45">
+        <v>10.58</v>
+      </c>
+      <c r="R45">
+        <v>12.54</v>
+      </c>
+      <c r="S45">
+        <v>10.68</v>
+      </c>
+      <c r="T45">
+        <f>AVERAGE(B45:S45)</f>
+        <v>14.662222222222219</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="3"/>
+        <v>3.1715250656159375</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="C46">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="D46">
+        <v>18.96</v>
+      </c>
+      <c r="E46">
+        <v>20.91</v>
+      </c>
+      <c r="F46">
+        <v>18.36</v>
+      </c>
+      <c r="G46">
+        <v>19.95</v>
+      </c>
+      <c r="H46">
+        <v>21.47</v>
+      </c>
+      <c r="I46">
+        <v>21.39</v>
+      </c>
+      <c r="J46">
+        <v>21.1</v>
+      </c>
+      <c r="K46">
+        <v>16.53</v>
+      </c>
+      <c r="L46">
+        <v>17.34</v>
+      </c>
+      <c r="M46">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="N46">
+        <v>14.77</v>
+      </c>
+      <c r="O46">
+        <v>16.52</v>
+      </c>
+      <c r="P46">
+        <v>15.57</v>
+      </c>
+      <c r="Q46">
+        <v>11.38</v>
+      </c>
+      <c r="R46">
+        <v>12.34</v>
+      </c>
+      <c r="S46">
+        <v>10.78</v>
+      </c>
+      <c r="T46">
+        <f>AVERAGE(B46:S46)</f>
+        <v>17.431666666666661</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="3"/>
+        <v>3.3726970356256123</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="4"/>
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>20.14</v>
+      </c>
+      <c r="C47">
+        <v>23.76</v>
+      </c>
+      <c r="D47">
+        <v>17.010999999999999</v>
+      </c>
+      <c r="E47">
+        <v>21.74</v>
+      </c>
+      <c r="F47">
+        <v>13.99</v>
+      </c>
+      <c r="G47">
+        <v>25.39</v>
+      </c>
+      <c r="H47">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="I47">
+        <v>24.2</v>
+      </c>
+      <c r="J47">
+        <v>14.8</v>
+      </c>
+      <c r="K47">
+        <v>11.96</v>
+      </c>
+      <c r="L47">
+        <v>11.95</v>
+      </c>
+      <c r="M47">
+        <v>10.98</v>
+      </c>
+      <c r="N47">
+        <v>10.73</v>
+      </c>
+      <c r="O47">
+        <v>9.59</v>
+      </c>
+      <c r="P47">
+        <v>15.82</v>
+      </c>
+      <c r="Q47">
+        <v>12.27</v>
+      </c>
+      <c r="R47">
+        <v>9.83</v>
+      </c>
+      <c r="S47">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="T47">
+        <f>AVERAGE(B47:S47)</f>
+        <v>15.515055555555554</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="3"/>
+        <v>5.3965775698418605</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="4"/>
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C48">
+        <v>14.92</v>
+      </c>
+      <c r="D48">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E48">
+        <v>16.16</v>
+      </c>
+      <c r="F48">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>16.25</v>
+      </c>
+      <c r="I48">
+        <v>17.02</v>
+      </c>
+      <c r="J48">
+        <v>17.27</v>
+      </c>
+      <c r="K48">
+        <v>12.53</v>
+      </c>
+      <c r="L48">
+        <v>12.04</v>
+      </c>
+      <c r="M48">
+        <v>13.09</v>
+      </c>
+      <c r="N48">
+        <v>15.28</v>
+      </c>
+      <c r="O48">
+        <v>11.79</v>
+      </c>
+      <c r="P48">
+        <v>13.82</v>
+      </c>
+      <c r="Q48">
+        <v>11.27</v>
+      </c>
+      <c r="R48">
+        <v>11.9</v>
+      </c>
+      <c r="S48">
+        <v>10.52</v>
+      </c>
+      <c r="T48">
+        <f>AVERAGE(B48:S48)</f>
+        <v>14.760555555555555</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="3"/>
+        <v>2.691525856815896</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="4"/>
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>12.91</v>
+      </c>
+      <c r="C49">
+        <v>13.59</v>
+      </c>
+      <c r="D49">
+        <v>15.98</v>
+      </c>
+      <c r="E49">
+        <v>14.35</v>
+      </c>
+      <c r="F49">
+        <v>20.74</v>
+      </c>
+      <c r="G49">
+        <v>13.61</v>
+      </c>
+      <c r="H49">
+        <v>23.46</v>
+      </c>
+      <c r="I49">
+        <v>20.11</v>
+      </c>
+      <c r="J49">
+        <v>13.59</v>
+      </c>
+      <c r="K49">
+        <v>12.79</v>
+      </c>
+      <c r="L49">
+        <v>12.23</v>
+      </c>
+      <c r="M49">
+        <v>11.811</v>
+      </c>
+      <c r="N49">
+        <v>11.44</v>
+      </c>
+      <c r="O49">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="P49">
+        <v>10</v>
+      </c>
+      <c r="Q49">
+        <v>10.31</v>
+      </c>
+      <c r="R49">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="S49">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T49">
+        <f>AVERAGE(B49:S49)</f>
+        <v>13.595611111111111</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="3"/>
+        <v>4.1188181791395557</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>14.17</v>
+      </c>
+      <c r="C50">
+        <v>14.69</v>
+      </c>
+      <c r="D50">
+        <v>14.9</v>
+      </c>
+      <c r="E50">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="F50">
+        <v>14.91</v>
+      </c>
+      <c r="G50">
+        <v>13.48</v>
+      </c>
+      <c r="H50">
+        <v>15.51</v>
+      </c>
+      <c r="I50">
+        <v>14.13</v>
+      </c>
+      <c r="J50">
+        <v>14.035</v>
+      </c>
+      <c r="K50">
+        <v>16.013999999999999</v>
+      </c>
+      <c r="L50">
+        <v>13.022</v>
+      </c>
+      <c r="M50">
+        <v>11.48</v>
+      </c>
+      <c r="N50">
+        <v>11.34</v>
+      </c>
+      <c r="O50">
+        <v>12.56</v>
+      </c>
+      <c r="P50">
+        <v>10.87</v>
+      </c>
+      <c r="Q50">
+        <v>11.37</v>
+      </c>
+      <c r="R50">
+        <v>9.51</v>
+      </c>
+      <c r="S50">
+        <v>9.1</v>
+      </c>
+      <c r="T50">
+        <f>AVERAGE(B50:S50)</f>
+        <v>13.198944444444443</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="3"/>
+        <v>2.1795518285194726</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="4"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
